--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1B238-FA35-4D59-9526-1A1761373AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765AF07-41FD-46A7-80F7-3CACA1BD1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Cope</t>
+    <t>Naprelan</t>
   </si>
 </sst>
 </file>
@@ -665,13 +665,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -712,13 +712,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -726,7 +726,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>45</v>
       </c>
@@ -743,27 +743,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>83</v>
       </c>
@@ -921,30 +921,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="23.109375" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1015,10 +1015,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Cope</v>
+        <v>Naprelan</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1100,17 +1100,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1187,17 +1187,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1274,17 +1274,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1324,12 +1324,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>74</v>
       </c>
@@ -1347,17 +1347,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1434,15 +1434,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="7" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="15.7109375" style="7" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="7"/>
+    <col min="4" max="4" width="14.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>45</v>
       </c>
@@ -1470,22 +1470,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>79</v>
       </c>
@@ -1503,13 +1503,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>45</v>
       </c>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D765AF07-41FD-46A7-80F7-3CACA1BD1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38294E-7A0C-408D-B118-730F277D5945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Naprelan</t>
+    <t>ketoprofen</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Naprelan</v>
+        <v>ketoprofen</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38294E-7A0C-408D-B118-730F277D5945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4828297-978A-4B1F-A16F-2393B78B6475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>ketoprofen</t>
+    <t>Kiprofen</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>ketoprofen</v>
+        <v>Kiprofen</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4828297-978A-4B1F-A16F-2393B78B6475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F447568-8D5F-428D-BD59-2DD27DE8E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Kiprofen</t>
+    <t>Caldolor</t>
   </si>
 </sst>
 </file>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Kiprofen</v>
+        <v>Caldolor</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F447568-8D5F-428D-BD59-2DD27DE8E7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0F63D-AF8A-4652-8947-577DF702A7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Caldolor</t>
+    <t>Ecpirin</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Caldolor</v>
+        <v>Ecpirin</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0F63D-AF8A-4652-8947-577DF702A7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79419FD9-E9EB-4D55-BCD9-255F6FCD666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Ecpirin</t>
+    <t>Entercote</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Ecpirin</v>
+        <v>Entercote</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79419FD9-E9EB-4D55-BCD9-255F6FCD666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DEE232-88D2-42E6-A7D1-F97B490ECE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Entercote</t>
+    <t>Enterr</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Entercote</v>
+        <v>Enterr</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DEE232-88D2-42E6-A7D1-F97B490ECE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D2366-C2BA-4972-A1E3-38C7968F05CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Enterr</t>
+    <t>EnteP</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Enterr</v>
+        <v>EnteP</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D2366-C2BA-4972-A1E3-38C7968F05CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCEF66A-AD54-4622-86EE-00AB690BFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>EnteP</t>
+    <t>EnteQ</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>EnteP</v>
+        <v>EnteQ</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCEF66A-AD54-4622-86EE-00AB690BFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B721D-932D-49AE-8099-BCC20E003152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5010" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>EnteQ</t>
+    <t>EnteR</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>EnteQ</v>
+        <v>EnteR</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B721D-932D-49AE-8099-BCC20E003152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9CB5B-0F4B-4694-858F-44E3BCE46496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5010" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>EnteR</t>
+    <t>Mitna</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>EnteR</v>
+        <v>Mitna</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D9CB5B-0F4B-4694-858F-44E3BCE46496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EBFD91-0A44-47EA-BCD6-65D41644F395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5010" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Mitna</t>
+    <t>MitraA</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Mitna</v>
+        <v>MitraA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EBFD91-0A44-47EA-BCD6-65D41644F395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E703EB-DEF2-415B-AB31-9CF219E18A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>MitraA</t>
+    <t>MitraB</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MitraA</v>
+        <v>MitraB</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E703EB-DEF2-415B-AB31-9CF219E18A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BD77D-EA8A-4C4D-9EE5-E9988F3FC2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>MitraB</t>
+    <t>MitraC</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MitraB</v>
+        <v>MitraC</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BD77D-EA8A-4C4D-9EE5-E9988F3FC2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E12181-D4C6-4609-AE88-33CB7F5C024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>MitraC</t>
+    <t>MitraD</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MitraC</v>
+        <v>MitraD</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E12181-D4C6-4609-AE88-33CB7F5C024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A8F71-C006-4972-8DE6-FD75BC459E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>MitraD</t>
+    <t>MitraF</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MitraD</v>
+        <v>MitraF</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A8F71-C006-4972-8DE6-FD75BC459E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72940573-085A-4554-A66C-4EB20E5881DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72940573-085A-4554-A66C-4EB20E5881DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BF250-DAE9-4B0D-AC7D-5436CFE5141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3510" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
   <si>
     <t>username</t>
   </si>
@@ -296,7 +296,10 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>MitraF</t>
+    <t>Ascoril LS Drops</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1018,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MitraF</v>
+        <v>Ascoril LS Drops</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1270,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BF250-DAE9-4B0D-AC7D-5436CFE5141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4059BC-8C09-4890-B581-21006B79AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>Ascoril LS Drops</t>
-  </si>
-  <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>Azithral 200 Liquid</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Ascoril LS Drops</v>
+        <v>Azithral 200 Liquid</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1273,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE21942-4C65-4C3C-9E26-C7BBADC81DED}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1315,7 +1315,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4059BC-8C09-4890-B581-21006B79AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C901929-0AFD-47E1-9957-2C7055F16391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>Azithral 200 Liquid</t>
+    <t>AF Kit Tablet</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Azithral 200 Liquid</v>
+        <v>AF Kit Tablet</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C901929-0AFD-47E1-9957-2C7055F16391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA376AF-48DE-41ED-B767-C50E5A3B7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>AF Kit Tablet</t>
+    <t>AFUTablet</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AF Kit Tablet</v>
+        <v>AFUTablet</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA376AF-48DE-41ED-B767-C50E5A3B7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650DDAE-88DD-4F80-A77F-62D6D023D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,10 +296,10 @@
     <t>decrement</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>AFUTablet</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>MedOne</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>AFUTablet</v>
+        <v>MedOne</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650DDAE-88DD-4F80-A77F-62D6D023D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3FB75-ED25-4F3D-A68A-7236390BEB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>MedOne</t>
+    <t>MedTwo</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MedOne</v>
+        <v>MedTwo</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C3FB75-ED25-4F3D-A68A-7236390BEB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39747E-CA0E-4179-87DB-5177431EEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>MedTwo</t>
+    <t>MedThree</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MedTwo</v>
+        <v>MedThree</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD39747E-CA0E-4179-87DB-5177431EEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928C970-BC28-42FD-AE9F-E51B150A65D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>MedThree</t>
+    <t>Abacavir 300mg tablets</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2" t="s">
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>MedThree</v>
+        <v>Abacavir 300mg tablets</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928C970-BC28-42FD-AE9F-E51B150A65D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD096C7-D2AA-46E8-A001-9D59FD267DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Abacavir 300mg tablets</t>
+    <t>GlycerinA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Abacavir 300mg tablets</v>
+        <v>GlycerinA</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD096C7-D2AA-46E8-A001-9D59FD267DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DBE40-C09F-4D5F-ACED-C7AB1DFD4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
   <si>
     <t>username</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>GlycerinA</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>Manoj@124</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,24 +690,32 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -746,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19DBE40-C09F-4D5F-ACED-C7AB1DFD4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268C998-5AC8-4477-92E7-9254392BB96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t>username</t>
   </si>
@@ -53,15 +53,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>prerelease.auto</t>
-  </si>
-  <si>
-    <t>manoj.auto</t>
-  </si>
-  <si>
-    <t>Manoj@2024</t>
-  </si>
-  <si>
     <t>stock_name</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>stbat_supplier</t>
   </si>
   <si>
-    <t>Atharva Supplier</t>
-  </si>
-  <si>
     <t>stbat_batch_number</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>ExtraBatch</t>
   </si>
   <si>
-    <t>Manoj@2023</t>
-  </si>
-  <si>
     <t>Default Pharmacy</t>
   </si>
   <si>
@@ -299,13 +284,19 @@
     <t>8</t>
   </si>
   <si>
-    <t>GlycerinA</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>Manoj@124</t>
+    <t>release.stocka</t>
+  </si>
+  <si>
+    <t>Manoj@2025</t>
+  </si>
+  <si>
+    <t>release.stockb</t>
+  </si>
+  <si>
+    <t>Atharava Supplier</t>
+  </si>
+  <si>
+    <t>GlycerinAS</t>
   </si>
 </sst>
 </file>
@@ -668,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,32 +681,24 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{74AAE140-4AA4-40CF-9A37-EC50DF49193E}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{0C05B6B9-5554-4DE8-9F6A-6002C7FF4022}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -737,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -782,150 +765,150 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="V2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="X1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -938,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,145 +946,145 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
       <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinA</v>
+        <v>GlycerinAS</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="U2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1097,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,66 +1112,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1184,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,66 +1199,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1303,52 +1286,52 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1344,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,66 +1359,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1461,50 +1444,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1500,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,18 +1511,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268C998-5AC8-4477-92E7-9254392BB96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546C9D0-57BD-4833-AA17-1E016C2A5404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>GlycerinAS</t>
+    <t>GlycerinAx</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinAS</v>
+        <v>GlycerinAx</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D546C9D0-57BD-4833-AA17-1E016C2A5404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCEC0C-E10B-43BF-AE4A-38D3726ACF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>GlycerinAx</t>
+    <t>Dolo125MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>GlycerinAx</v>
+        <v>Dolo125MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DCEC0C-E10B-43BF-AE4A-38D3726ACF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0768C4-A03A-4A54-987C-E4A5AE203BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo125MG</t>
+    <t>Dolo130MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo125MG</v>
+        <v>Dolo130MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0768C4-A03A-4A54-987C-E4A5AE203BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462DE2CF-1CCD-4165-BF95-F5DACE53C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo130MG</t>
+    <t>Dolo132MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo130MG</v>
+        <v>Dolo132MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462DE2CF-1CCD-4165-BF95-F5DACE53C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DF910-7FCE-4AFA-A5F8-0CE3422A8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo132MG</t>
+    <t>Dolo133MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo132MG</v>
+        <v>Dolo133MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DF910-7FCE-4AFA-A5F8-0CE3422A8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD8425-B74E-4F7B-ACC8-0029981A02AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1830" windowWidth="20265" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo133MG</t>
+    <t>Dolo134MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo133MG</v>
+        <v>Dolo134MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BD8425-B74E-4F7B-ACC8-0029981A02AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E712D3-70B0-42C7-B6B4-F68CD7BFB306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E712D3-70B0-42C7-B6B4-F68CD7BFB306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2983A3B-D583-401C-8762-D78BEAD94749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo134MG</t>
+    <t>Dolo141MG</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo134MG</v>
+        <v>Dolo141MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2983A3B-D583-401C-8762-D78BEAD94749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D490B73-5163-41D5-8E47-CEB5D5BF20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo141MG</t>
+    <t>Dolo143MG</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo141MG</v>
+        <v>Dolo143MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D490B73-5163-41D5-8E47-CEB5D5BF20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479098D-82D5-463C-BED5-07E3361D6E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo143MG</t>
+    <t>Dolo144MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo143MG</v>
+        <v>Dolo144MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479098D-82D5-463C-BED5-07E3361D6E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB53B558-F125-43A1-9AA1-EC66AEF5672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo144MG</t>
+    <t>Dolo145MG</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1015,10 +1015,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo144MG</v>
+        <v>Dolo145MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB53B558-F125-43A1-9AA1-EC66AEF5672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5143B-2F87-441A-99B5-20C4D999FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo145MG</t>
+    <t>Dolo146MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo145MG</v>
+        <v>Dolo146MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5143B-2F87-441A-99B5-20C4D999FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1611A-3351-4B34-A508-96BE640BBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1611A-3351-4B34-A508-96BE640BBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE7046-BA7F-4507-9A5E-130C998AAA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo146MG</t>
+    <t>Dolo147MG</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo146MG</v>
+        <v>Dolo147MG</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE7046-BA7F-4507-9A5E-130C998AAA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A0C29-A35A-415E-B635-887A2B9F0341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Dolo147MG</t>
+    <t>Zinco</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Dolo147MG</v>
+        <v>Zinco</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586A0C29-A35A-415E-B635-887A2B9F0341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECD10EE-CF0F-46C0-BF75-57FE61E5163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco</t>
+    <t>Zinco01</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco</v>
+        <v>Zinco01</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECD10EE-CF0F-46C0-BF75-57FE61E5163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D507129-7742-44B7-ACE7-73C414C45227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D507129-7742-44B7-ACE7-73C414C45227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA11D7-0D40-4912-9B80-7F4E241B3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco01</t>
+    <t>Zinco04</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco01</v>
+        <v>Zinco04</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBA11D7-0D40-4912-9B80-7F4E241B3DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9DA19B-2116-4C13-BE8D-74D93EA8F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco04</t>
+    <t>Zinco05</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco04</v>
+        <v>Zinco05</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9DA19B-2116-4C13-BE8D-74D93EA8F904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF560E-9F76-4273-86E4-1E7A86F19C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco05</t>
+    <t>Zinco06</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco05</v>
+        <v>Zinco06</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF560E-9F76-4273-86E4-1E7A86F19C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8275F-D730-433D-955E-4CEEFE1BAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco06</t>
+    <t>Zinco10</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco06</v>
+        <v>Zinco10</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8275F-D730-433D-955E-4CEEFE1BAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE5836-29CA-4647-8E8D-A18C5EF334A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco10</t>
+    <t>Zinco11</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco10</v>
+        <v>Zinco11</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDE5836-29CA-4647-8E8D-A18C5EF334A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBDC6B-B408-49E2-92A2-498EB04983BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco11</t>
+    <t>Zinco13</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco11</v>
+        <v>Zinco13</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBDC6B-B408-49E2-92A2-498EB04983BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EF2BB-EE28-44C8-B58C-5A124156DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco13</t>
+    <t>Zinco14</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="str">
         <f>AddNewStock!A2</f>
-        <v>Zinco13</v>
+        <v>Zinco14</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EF2BB-EE28-44C8-B58C-5A124156DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316B767-F45A-4936-8999-558358862FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316B767-F45A-4936-8999-558358862FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D316D-0C6F-4AD7-A103-0C6D94B1AC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>username</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>Zinco14</t>
+  </si>
+  <si>
+    <t>Dermi</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,9 +1019,8 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="str">
-        <f>AddNewStock!A2</f>
-        <v>Zinco14</v>
+      <c r="A2" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254D316D-0C6F-4AD7-A103-0C6D94B1AC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66300B0F-63F2-4626-831A-3804CD9484BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="1" r:id="rId1"/>
@@ -296,10 +296,10 @@
     <t>Atharava Supplier</t>
   </si>
   <si>
-    <t>Zinco14</t>
-  </si>
-  <si>
-    <t>Dermi</t>
+    <t>DermiB</t>
+  </si>
+  <si>
+    <t>DermiC</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6834B6FC-CAD9-422A-8F3B-C1D76C190C8D}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +842,7 @@
     </row>
     <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F2A331-EEA0-4CAD-9DF4-CCAD2BA390DC}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66300B0F-63F2-4626-831A-3804CD9484BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31E89D-FD1D-48EF-9B0D-5FEE3CEBF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>DermiB</t>
   </si>
   <si>
-    <t>DermiC</t>
+    <t>DermiE</t>
   </si>
 </sst>
 </file>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A31E89D-FD1D-48EF-9B0D-5FEE3CEBF4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0C782-E4B3-488A-9262-E5F973858DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>DermiB</t>
   </si>
   <si>
-    <t>DermiE</t>
+    <t>DermiFA</t>
   </si>
 </sst>
 </file>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0C782-E4B3-488A-9262-E5F973858DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA8235-F972-47B4-8EEB-84B687C3AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>DermiB</t>
   </si>
   <si>
-    <t>DermiFA</t>
+    <t>DermiFC</t>
   </si>
 </sst>
 </file>

--- a/ExcelFiles/StockDomain.xlsx
+++ b/ExcelFiles/StockDomain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA8235-F972-47B4-8EEB-84B687C3AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40A234-3C34-4F91-ABAB-B6A1847FE76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>DermiB</t>
   </si>
   <si>
-    <t>DermiFC</t>
+    <t>DermiFD</t>
   </si>
 </sst>
 </file>
